--- a/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>184.61231379002251</v>
+        <v>184.61231380602356</v>
       </c>
       <c r="C2">
-        <v>184.09739802849433</v>
+        <v>184.09739805874375</v>
       </c>
       <c r="D2">
-        <v>178.05015887236851</v>
+        <v>178.05015896003516</v>
       </c>
       <c r="E2">
-        <v>227.46963178366408</v>
+        <v>227.46963194202542</v>
       </c>
       <c r="F2">
-        <v>202.89675076994391</v>
+        <v>202.8967507968641</v>
       </c>
       <c r="G2">
-        <v>187.58424330039418</v>
+        <v>187.58424332672416</v>
       </c>
       <c r="H2">
-        <v>186.7016078020406</v>
+        <v>186.70160782744705</v>
       </c>
       <c r="I2">
-        <v>187.71655522233999</v>
+        <v>187.71655524214987</v>
       </c>
       <c r="J2">
-        <v>174.40905176236882</v>
+        <v>174.40905177146314</v>
       </c>
       <c r="K2">
-        <v>173.82504379770555</v>
+        <v>173.82504382397684</v>
       </c>
       <c r="L2">
-        <v>196.34857831926209</v>
+        <v>196.34857836077063</v>
       </c>
       <c r="M2">
-        <v>177.36203358297101</v>
+        <v>177.36203358233712</v>
       </c>
       <c r="N2">
-        <v>237.11241452478455</v>
+        <v>237.11241462348252</v>
       </c>
       <c r="O2">
-        <v>173.83571761166135</v>
+        <v>173.8357176670649</v>
       </c>
       <c r="P2">
-        <v>207.60246690955145</v>
+        <v>207.60246695441649</v>
       </c>
       <c r="Q2">
-        <v>191.53253131573933</v>
+        <v>191.53253134806451</v>
       </c>
       <c r="R2">
-        <v>224.94964045413576</v>
+        <v>224.94964045442077</v>
       </c>
       <c r="S2">
-        <v>197.9181700714999</v>
+        <v>197.91817008896922</v>
       </c>
       <c r="T2">
-        <v>201.06565348874921</v>
+        <v>201.0656534912282</v>
       </c>
       <c r="U2">
-        <v>166.00896234484742</v>
+        <v>166.0089623606867</v>
       </c>
       <c r="V2">
-        <v>202.55953053108851</v>
+        <v>202.55953057334139</v>
       </c>
       <c r="W2">
-        <v>228.90861024252132</v>
+        <v>228.90861031352904</v>
       </c>
       <c r="X2">
-        <v>161.90038426678362</v>
+        <v>161.90038426192871</v>
       </c>
       <c r="Y2">
-        <v>179.65714922744255</v>
+        <v>179.65714924252538</v>
       </c>
       <c r="Z2">
-        <v>162.84553961968371</v>
+        <v>162.84553964235826</v>
       </c>
       <c r="AA2">
-        <v>182.50961017297985</v>
+        <v>182.50961013690349</v>
       </c>
       <c r="AB2">
-        <v>178.91766014454177</v>
+        <v>178.91766015943301</v>
       </c>
       <c r="AC2">
-        <v>159.90390883943024</v>
+        <v>159.90390888541376</v>
       </c>
       <c r="AD2">
-        <v>201.54902390037222</v>
+        <v>201.5490239045964</v>
       </c>
       <c r="AE2">
-        <v>182.34099214496712</v>
+        <v>182.34099212398709</v>
       </c>
       <c r="AF2">
-        <v>178.04249302293678</v>
+        <v>178.04249304807047</v>
       </c>
       <c r="AG2">
-        <v>195.64758159954533</v>
+        <v>195.64758175301864</v>
       </c>
       <c r="AH2">
-        <v>182.79160503873416</v>
+        <v>182.79160505551408</v>
       </c>
       <c r="AI2">
-        <v>195.76343866941306</v>
+        <v>195.76343865783315</v>
       </c>
       <c r="AJ2">
-        <v>185.28833437338778</v>
+        <v>185.28833444516619</v>
       </c>
       <c r="AK2">
-        <v>195.34797993831717</v>
+        <v>195.34797992883713</v>
       </c>
       <c r="AL2">
-        <v>175.72619528494135</v>
+        <v>175.72619534025134</v>
       </c>
       <c r="AM2">
-        <v>238.50370241407103</v>
+        <v>238.50370248269837</v>
       </c>
       <c r="AN2">
-        <v>175.68100961456162</v>
+        <v>175.68100970774961</v>
       </c>
       <c r="AO2">
-        <v>197.79342081159274</v>
+        <v>197.79342087457212</v>
       </c>
       <c r="AP2">
-        <v>194.69747786189683</v>
+        <v>194.69747790382763</v>
       </c>
       <c r="AQ2">
-        <v>225.06406864643611</v>
+        <v>225.06406872434579</v>
       </c>
       <c r="AR2">
-        <v>193.17628207058559</v>
+        <v>193.17628207209052</v>
       </c>
       <c r="AS2">
-        <v>213.00078168635702</v>
+        <v>213.00078173954444</v>
       </c>
       <c r="AT2">
-        <v>166.95884359083922</v>
+        <v>166.95884364439519</v>
       </c>
       <c r="AU2">
-        <v>204.56318338637939</v>
+        <v>204.56318343408822</v>
       </c>
       <c r="AV2">
-        <v>228.69183796865275</v>
+        <v>228.69183801538867</v>
       </c>
       <c r="AW2">
-        <v>157.92392800901871</v>
+        <v>157.92392805493429</v>
       </c>
       <c r="AX2">
-        <v>191.79430797615601</v>
+        <v>191.79430801862136</v>
       </c>
       <c r="AY2">
-        <v>174.24659684226128</v>
+        <v>174.24659687047452</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>181.34680411710781</v>
+        <v>181.34680411029225</v>
       </c>
       <c r="C3">
-        <v>178.73908286606738</v>
+        <v>178.73908286516894</v>
       </c>
       <c r="D3">
-        <v>142.70167824947774</v>
+        <v>142.70167830416182</v>
       </c>
       <c r="E3">
-        <v>216.38006955358901</v>
+        <v>216.38006955953176</v>
       </c>
       <c r="F3">
-        <v>190.46511498875446</v>
+        <v>190.46511499117736</v>
       </c>
       <c r="G3">
-        <v>182.46037796627604</v>
+        <v>182.46037796217206</v>
       </c>
       <c r="H3">
-        <v>185.83711934140487</v>
+        <v>185.8371194188791</v>
       </c>
       <c r="I3">
-        <v>177.32173893336508</v>
+        <v>177.32173891669797</v>
       </c>
       <c r="J3">
-        <v>175.77184026096154</v>
+        <v>175.77184027330441</v>
       </c>
       <c r="K3">
-        <v>183.788034150757</v>
+        <v>183.78803418893341</v>
       </c>
       <c r="L3">
-        <v>183.08674223682573</v>
+        <v>183.0867422805278</v>
       </c>
       <c r="M3">
-        <v>184.32996870860686</v>
+        <v>184.33023443620877</v>
       </c>
       <c r="N3">
-        <v>217.36520248127829</v>
+        <v>217.36520251781573</v>
       </c>
       <c r="O3">
-        <v>171.82536392823732</v>
+        <v>171.82536395782364</v>
       </c>
       <c r="P3">
-        <v>182.45746617506251</v>
+        <v>182.45746622242956</v>
       </c>
       <c r="Q3">
-        <v>188.80031368692994</v>
+        <v>188.80031376698872</v>
       </c>
       <c r="R3">
-        <v>229.76529472911966</v>
+        <v>229.76529476976782</v>
       </c>
       <c r="S3">
-        <v>188.55967871614573</v>
+        <v>188.55967873532859</v>
       </c>
       <c r="T3">
-        <v>225.68283584517462</v>
+        <v>225.68283587554103</v>
       </c>
       <c r="U3">
-        <v>167.02338507133814</v>
+        <v>167.02338509879974</v>
       </c>
       <c r="V3">
-        <v>211.23829622661324</v>
+        <v>211.23829625152422</v>
       </c>
       <c r="W3">
-        <v>192.79607025035017</v>
+        <v>192.79607024993047</v>
       </c>
       <c r="X3">
-        <v>164.17477280085546</v>
+        <v>164.17477282694463</v>
       </c>
       <c r="Y3">
-        <v>175.47005322903848</v>
+        <v>175.47005327726288</v>
       </c>
       <c r="Z3">
-        <v>166.76510174326472</v>
+        <v>166.76510177585817</v>
       </c>
       <c r="AA3">
-        <v>173.77872156219007</v>
+        <v>173.77872156830153</v>
       </c>
       <c r="AB3">
-        <v>185.12805287276694</v>
+        <v>185.12805284804054</v>
       </c>
       <c r="AC3">
-        <v>146.79232921638635</v>
+        <v>146.79232925121198</v>
       </c>
       <c r="AD3">
-        <v>223.88541805930305</v>
+        <v>223.88541808695541</v>
       </c>
       <c r="AE3">
-        <v>187.56851390808862</v>
+        <v>187.56851387842826</v>
       </c>
       <c r="AF3">
-        <v>181.55031159093394</v>
+        <v>181.55031160443392</v>
       </c>
       <c r="AG3">
-        <v>188.64924821399114</v>
+        <v>188.64924824997121</v>
       </c>
       <c r="AH3">
-        <v>190.75626697182557</v>
+        <v>190.75626698281476</v>
       </c>
       <c r="AI3">
-        <v>175.37639749724903</v>
+        <v>175.37639755242944</v>
       </c>
       <c r="AJ3">
-        <v>185.90062829989554</v>
+        <v>185.90062832520769</v>
       </c>
       <c r="AK3">
-        <v>196.89200156565047</v>
+        <v>196.8920016046946</v>
       </c>
       <c r="AL3">
-        <v>177.39951423517766</v>
+        <v>177.39951430147877</v>
       </c>
       <c r="AM3">
-        <v>215.1743397110003</v>
+        <v>215.17433980092929</v>
       </c>
       <c r="AN3">
-        <v>183.72897070468269</v>
+        <v>183.72897075034024</v>
       </c>
       <c r="AO3">
-        <v>233.15451210915924</v>
+        <v>233.15451215215523</v>
       </c>
       <c r="AP3">
-        <v>189.78633265878261</v>
+        <v>189.78633267548798</v>
       </c>
       <c r="AQ3">
-        <v>219.60449035383988</v>
+        <v>219.60449041302877</v>
       </c>
       <c r="AR3">
-        <v>182.27072886352369</v>
+        <v>182.27072888706232</v>
       </c>
       <c r="AS3">
-        <v>229.58117340265798</v>
+        <v>229.5811734192734</v>
       </c>
       <c r="AT3">
-        <v>166.72109919801341</v>
+        <v>166.72109924395872</v>
       </c>
       <c r="AU3">
-        <v>224.31820182514417</v>
+        <v>224.31820184943248</v>
       </c>
       <c r="AV3">
-        <v>198.93892567594281</v>
+        <v>198.9389257841548</v>
       </c>
       <c r="AW3">
-        <v>165.64159183373454</v>
+        <v>165.64159186366803</v>
       </c>
       <c r="AX3">
-        <v>156.43998920323003</v>
+        <v>156.43998920666655</v>
       </c>
       <c r="AY3">
-        <v>171.81754879376646</v>
+        <v>171.8175488311397</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>184.61231380602356</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>184.09739805874375</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>178.05015896003516</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>227.46963194202542</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>202.8967507968641</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>187.58424332672416</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>186.70160782744705</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>187.71655524214987</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>174.40905177146314</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>173.82504382397684</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>196.34857836077063</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>177.36203358233712</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>237.11241462348252</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>173.8357176670649</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>207.60246695441649</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>191.53253134806451</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>224.94964045442077</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>197.91817008896922</v>
@@ -588,55 +477,55 @@
         <v>162.84553964235826</v>
       </c>
       <c r="AA2">
-        <v>182.50961013690349</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>178.91766015943301</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>159.90390888541376</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>201.5490239045964</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>182.34099212398709</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>178.04249304807047</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>195.64758175301864</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>182.79160505551408</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>195.76343865783315</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>185.28833444516619</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>195.34797992883713</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>175.72619534025134</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>238.50370248269837</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>175.68100970774961</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>197.79342087457212</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>194.69747790382763</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>225.06406872434579</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>193.17628207209052</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>181.34680411029225</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>178.73908286516894</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>142.70167830416182</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>216.38006955953176</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>190.46511499117736</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>182.46037796217206</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>185.8371194188791</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>177.32173891669797</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>175.77184027330441</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>183.78803418893341</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>183.0867422805278</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>184.33023443620877</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>217.36520251781573</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>171.82536395782364</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>182.45746622242956</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>188.80031376698872</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>229.76529476976782</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>188.55967873532859</v>
@@ -743,55 +629,55 @@
         <v>166.76510177585817</v>
       </c>
       <c r="AA3">
-        <v>173.77872156830153</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>185.12805284804054</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>146.79232925121198</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>223.88541808695541</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>187.56851387842826</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>181.55031160443392</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>188.64924824997121</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>190.75626698281476</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>175.37639755242944</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>185.90062832520769</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>196.8920016046946</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>177.39951430147877</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>215.17433980092929</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>183.72897075034024</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>233.15451215215523</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>189.78633267548798</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>219.60449041302877</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>182.27072888706232</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>184.61231379002251</v>
+        <v>173.8357176670649</v>
       </c>
       <c r="C2">
-        <v>184.09739802849433</v>
+        <v>224.19778893170823</v>
       </c>
       <c r="D2">
-        <v>178.05015887236851</v>
+        <v>175.68100970774961</v>
       </c>
       <c r="E2">
-        <v>227.46963178366408</v>
+        <v>225.06406872434579</v>
       </c>
       <c r="F2">
         <v>202.89675076994391</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>181.34680411710781</v>
+        <v>171.82536395782364</v>
       </c>
       <c r="C3">
-        <v>178.73908286606738</v>
+        <v>229.76529476976782</v>
       </c>
       <c r="D3">
-        <v>142.70167824947774</v>
+        <v>183.72897075034024</v>
       </c>
       <c r="E3">
-        <v>216.38006955358901</v>
+        <v>219.50334509534949</v>
       </c>
       <c r="F3">
         <v>190.46511498875446</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>184.61231379002251</v>
+        <v>237.11241462348252</v>
       </c>
       <c r="C2">
-        <v>184.09739802849433</v>
+        <v>173.8357176670649</v>
       </c>
       <c r="D2">
-        <v>178.05015887236851</v>
+        <v>238.50370248269837</v>
       </c>
       <c r="E2">
-        <v>227.46963178366408</v>
+        <v>175.68100970774961</v>
       </c>
       <c r="F2">
         <v>202.89675076994391</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>181.34680411710781</v>
+        <v>217.36520251781573</v>
       </c>
       <c r="C3">
-        <v>178.73908286606738</v>
+        <v>171.82536395782364</v>
       </c>
       <c r="D3">
-        <v>142.70167824947774</v>
+        <v>215.17433980092929</v>
       </c>
       <c r="E3">
-        <v>216.38006955358901</v>
+        <v>183.72897075034024</v>
       </c>
       <c r="F3">
         <v>190.46511498875446</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>184.61231380602356</v>
+      </c>
+      <c r="C2">
+        <v>184.09739805874375</v>
+      </c>
+      <c r="D2">
+        <v>178.05015896003516</v>
+      </c>
+      <c r="E2">
+        <v>227.46963194202542</v>
+      </c>
+      <c r="F2">
+        <v>202.8967507968641</v>
+      </c>
+      <c r="G2">
+        <v>187.58424332672416</v>
+      </c>
+      <c r="H2">
+        <v>186.70160782744705</v>
+      </c>
+      <c r="I2">
+        <v>187.71655524214987</v>
+      </c>
+      <c r="J2">
+        <v>174.40905177146314</v>
+      </c>
+      <c r="K2">
+        <v>173.82504382397684</v>
+      </c>
+      <c r="L2">
+        <v>196.34857836077063</v>
+      </c>
+      <c r="M2">
+        <v>176.44432281929693</v>
+      </c>
+      <c r="N2">
         <v>237.11241462348252</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>173.8357176670649</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>207.60246695441649</v>
+      </c>
+      <c r="Q2">
+        <v>191.53253134806451</v>
+      </c>
+      <c r="R2">
+        <v>224.19778893170823</v>
+      </c>
+      <c r="S2">
+        <v>197.91817008896922</v>
+      </c>
+      <c r="T2">
+        <v>200.95996848804663</v>
+      </c>
+      <c r="U2">
+        <v>166.0089623606867</v>
+      </c>
+      <c r="V2">
+        <v>202.55953057334139</v>
+      </c>
+      <c r="W2">
+        <v>228.90861031352904</v>
+      </c>
+      <c r="X2">
+        <v>161.90038426192871</v>
+      </c>
+      <c r="Y2">
+        <v>179.65714924252538</v>
+      </c>
+      <c r="Z2">
+        <v>162.84553964235826</v>
+      </c>
+      <c r="AA2">
+        <v>182.50961013690349</v>
+      </c>
+      <c r="AB2">
+        <v>178.91766015943301</v>
+      </c>
+      <c r="AC2">
+        <v>159.90390888541376</v>
+      </c>
+      <c r="AD2">
+        <v>201.5490239045964</v>
+      </c>
+      <c r="AE2">
+        <v>182.34099212398709</v>
+      </c>
+      <c r="AF2">
+        <v>178.04249304807047</v>
+      </c>
+      <c r="AG2">
+        <v>195.64758175301864</v>
+      </c>
+      <c r="AH2">
+        <v>182.79160505551408</v>
+      </c>
+      <c r="AI2">
+        <v>195.76343865783315</v>
+      </c>
+      <c r="AJ2">
+        <v>185.28833444516619</v>
+      </c>
+      <c r="AK2">
+        <v>195.34797992883713</v>
+      </c>
+      <c r="AL2">
+        <v>175.72619534025134</v>
+      </c>
+      <c r="AM2">
         <v>238.50370248269837</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>175.68100970774961</v>
       </c>
-      <c r="F2">
-        <v>202.89675076994391</v>
-      </c>
-      <c r="G2">
-        <v>187.58424330039418</v>
-      </c>
-      <c r="H2">
-        <v>186.7016078020406</v>
-      </c>
-      <c r="I2">
-        <v>187.71655522233999</v>
-      </c>
-      <c r="J2">
-        <v>174.40905176236882</v>
-      </c>
-      <c r="K2">
-        <v>173.82504379770555</v>
-      </c>
-      <c r="L2">
-        <v>196.34857831926209</v>
-      </c>
-      <c r="M2">
-        <v>176.44432280090126</v>
-      </c>
-      <c r="N2">
-        <v>237.11241452478455</v>
-      </c>
-      <c r="O2">
-        <v>173.83571761166135</v>
-      </c>
-      <c r="P2">
-        <v>207.60246690955145</v>
-      </c>
-      <c r="Q2">
-        <v>191.53253131573933</v>
-      </c>
-      <c r="R2">
-        <v>224.19778892036652</v>
-      </c>
-      <c r="S2">
-        <v>197.9181700714999</v>
-      </c>
-      <c r="T2">
-        <v>200.95996847132875</v>
-      </c>
-      <c r="U2">
-        <v>166.00896234484742</v>
-      </c>
-      <c r="V2">
-        <v>202.55953053108851</v>
-      </c>
-      <c r="W2">
-        <v>228.90861024252132</v>
-      </c>
-      <c r="X2">
-        <v>161.90038426678362</v>
-      </c>
-      <c r="Y2">
-        <v>179.65714922744255</v>
-      </c>
-      <c r="Z2">
-        <v>162.84553961968371</v>
-      </c>
-      <c r="AA2">
-        <v>182.50961017297985</v>
-      </c>
-      <c r="AB2">
-        <v>178.91766014454177</v>
-      </c>
-      <c r="AC2">
-        <v>159.90390883943024</v>
-      </c>
-      <c r="AD2">
-        <v>201.54902390037222</v>
-      </c>
-      <c r="AE2">
-        <v>182.34099214496712</v>
-      </c>
-      <c r="AF2">
-        <v>178.04249302293678</v>
-      </c>
-      <c r="AG2">
-        <v>195.64758159954533</v>
-      </c>
-      <c r="AH2">
-        <v>182.79160503873416</v>
-      </c>
-      <c r="AI2">
-        <v>195.76343866941306</v>
-      </c>
-      <c r="AJ2">
-        <v>185.28833437338778</v>
-      </c>
-      <c r="AK2">
-        <v>195.34797993831717</v>
-      </c>
-      <c r="AL2">
-        <v>175.72619528494135</v>
-      </c>
-      <c r="AM2">
-        <v>238.50370241407103</v>
-      </c>
-      <c r="AN2">
-        <v>175.68100961456162</v>
-      </c>
       <c r="AO2">
-        <v>197.79342081159274</v>
+        <v>197.79342087457212</v>
       </c>
       <c r="AP2">
-        <v>194.27312808748653</v>
+        <v>194.27312814892932</v>
       </c>
       <c r="AQ2">
-        <v>225.06406864643611</v>
+        <v>225.06406872434579</v>
       </c>
       <c r="AR2">
-        <v>193.17628207058559</v>
+        <v>193.17628207209052</v>
       </c>
       <c r="AS2">
-        <v>213.00078168635702</v>
+        <v>213.00078173954444</v>
       </c>
       <c r="AT2">
-        <v>166.95884359083922</v>
+        <v>166.95884364439519</v>
       </c>
       <c r="AU2">
-        <v>204.56318338637939</v>
+        <v>204.56318343408822</v>
       </c>
       <c r="AV2">
-        <v>228.69183796865275</v>
+        <v>228.69183801538867</v>
       </c>
       <c r="AW2">
-        <v>157.92392800901871</v>
+        <v>157.92392805493429</v>
       </c>
       <c r="AX2">
-        <v>191.79430797615601</v>
+        <v>191.79430801862136</v>
       </c>
       <c r="AY2">
-        <v>174.24659684226128</v>
+        <v>174.24659687047452</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>181.34680411029225</v>
+      </c>
+      <c r="C3">
+        <v>178.73908286516894</v>
+      </c>
+      <c r="D3">
+        <v>142.70167830416182</v>
+      </c>
+      <c r="E3">
+        <v>216.38006955953176</v>
+      </c>
+      <c r="F3">
+        <v>190.46511499117736</v>
+      </c>
+      <c r="G3">
+        <v>182.46037796217206</v>
+      </c>
+      <c r="H3">
+        <v>185.8371194188791</v>
+      </c>
+      <c r="I3">
+        <v>177.32173891669797</v>
+      </c>
+      <c r="J3">
+        <v>175.77184027330441</v>
+      </c>
+      <c r="K3">
+        <v>183.78803418893341</v>
+      </c>
+      <c r="L3">
+        <v>183.0867422805278</v>
+      </c>
+      <c r="M3">
+        <v>184.33023443620877</v>
+      </c>
+      <c r="N3">
         <v>217.36520251781573</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>171.82536395782364</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>182.45746622242956</v>
+      </c>
+      <c r="Q3">
+        <v>188.80031376698872</v>
+      </c>
+      <c r="R3">
+        <v>229.76529476976782</v>
+      </c>
+      <c r="S3">
+        <v>188.55967873532859</v>
+      </c>
+      <c r="T3">
+        <v>225.68283587554103</v>
+      </c>
+      <c r="U3">
+        <v>167.02338509879974</v>
+      </c>
+      <c r="V3">
+        <v>211.23829625152422</v>
+      </c>
+      <c r="W3">
+        <v>192.885257675585</v>
+      </c>
+      <c r="X3">
+        <v>164.17477282694463</v>
+      </c>
+      <c r="Y3">
+        <v>175.47005327726288</v>
+      </c>
+      <c r="Z3">
+        <v>166.76510177585817</v>
+      </c>
+      <c r="AA3">
+        <v>173.77872156830153</v>
+      </c>
+      <c r="AB3">
+        <v>185.12805284804054</v>
+      </c>
+      <c r="AC3">
+        <v>146.79232925121198</v>
+      </c>
+      <c r="AD3">
+        <v>223.88541808695541</v>
+      </c>
+      <c r="AE3">
+        <v>187.56851387842826</v>
+      </c>
+      <c r="AF3">
+        <v>181.55031160443392</v>
+      </c>
+      <c r="AG3">
+        <v>188.64924824997121</v>
+      </c>
+      <c r="AH3">
+        <v>191.88118267674145</v>
+      </c>
+      <c r="AI3">
+        <v>175.37639755242944</v>
+      </c>
+      <c r="AJ3">
+        <v>185.90062832520769</v>
+      </c>
+      <c r="AK3">
+        <v>196.8920016046946</v>
+      </c>
+      <c r="AL3">
+        <v>177.39951430147877</v>
+      </c>
+      <c r="AM3">
         <v>215.17433980092929</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>183.72897075034024</v>
       </c>
-      <c r="F3">
-        <v>190.46511498875446</v>
-      </c>
-      <c r="G3">
-        <v>182.46037796627604</v>
-      </c>
-      <c r="H3">
-        <v>185.83711934140487</v>
-      </c>
-      <c r="I3">
-        <v>177.32173893336508</v>
-      </c>
-      <c r="J3">
-        <v>175.77184026096154</v>
-      </c>
-      <c r="K3">
-        <v>183.788034150757</v>
-      </c>
-      <c r="L3">
-        <v>183.08674223682573</v>
-      </c>
-      <c r="M3">
-        <v>184.32996870860686</v>
-      </c>
-      <c r="N3">
-        <v>217.36520248127829</v>
-      </c>
-      <c r="O3">
-        <v>171.82536392823732</v>
-      </c>
-      <c r="P3">
-        <v>182.45746617506251</v>
-      </c>
-      <c r="Q3">
-        <v>188.80031368692994</v>
-      </c>
-      <c r="R3">
-        <v>229.76529472911966</v>
-      </c>
-      <c r="S3">
-        <v>188.55967871614573</v>
-      </c>
-      <c r="T3">
-        <v>225.68283584517462</v>
-      </c>
-      <c r="U3">
-        <v>167.02338507133814</v>
-      </c>
-      <c r="V3">
-        <v>211.23829622661324</v>
-      </c>
-      <c r="W3">
-        <v>192.88525762633878</v>
-      </c>
-      <c r="X3">
-        <v>164.17477280085546</v>
-      </c>
-      <c r="Y3">
-        <v>175.47005322903848</v>
-      </c>
-      <c r="Z3">
-        <v>166.76510174326472</v>
-      </c>
-      <c r="AA3">
-        <v>173.77872156219007</v>
-      </c>
-      <c r="AB3">
-        <v>185.12805287276694</v>
-      </c>
-      <c r="AC3">
-        <v>146.79232921638635</v>
-      </c>
-      <c r="AD3">
-        <v>223.88541805930305</v>
-      </c>
-      <c r="AE3">
-        <v>187.56851390808862</v>
-      </c>
-      <c r="AF3">
-        <v>181.55031159093394</v>
-      </c>
-      <c r="AG3">
-        <v>188.64924821399114</v>
-      </c>
-      <c r="AH3">
-        <v>191.88118267618992</v>
-      </c>
-      <c r="AI3">
-        <v>175.37639749724903</v>
-      </c>
-      <c r="AJ3">
-        <v>185.90062829989554</v>
-      </c>
-      <c r="AK3">
-        <v>196.89200156565047</v>
-      </c>
-      <c r="AL3">
-        <v>177.39951423517766</v>
-      </c>
-      <c r="AM3">
-        <v>215.1743397110003</v>
-      </c>
-      <c r="AN3">
-        <v>183.72897070468269</v>
-      </c>
       <c r="AO3">
-        <v>233.15451210915924</v>
+        <v>233.15451215215523</v>
       </c>
       <c r="AP3">
-        <v>189.78633265878261</v>
+        <v>189.78633267548798</v>
       </c>
       <c r="AQ3">
-        <v>219.50334503437287</v>
+        <v>219.50334509534949</v>
       </c>
       <c r="AR3">
-        <v>182.27072886352369</v>
+        <v>182.27072888706232</v>
       </c>
       <c r="AS3">
-        <v>229.58117340265798</v>
+        <v>229.5811734192734</v>
       </c>
       <c r="AT3">
-        <v>166.72109919801341</v>
+        <v>166.72109924395872</v>
       </c>
       <c r="AU3">
-        <v>224.31820182514417</v>
+        <v>224.31820184943248</v>
       </c>
       <c r="AV3">
-        <v>198.93892567594281</v>
+        <v>198.9389257841548</v>
       </c>
       <c r="AW3">
-        <v>165.64159183373454</v>
+        <v>165.64159186366803</v>
       </c>
       <c r="AX3">
-        <v>156.43998920323003</v>
+        <v>156.43998920666655</v>
       </c>
       <c r="AY3">
-        <v>171.81754879376646</v>
+        <v>171.8175488311397</v>
       </c>
     </row>
   </sheetData>
